--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 12  DICIEMBRE   2021/CREDITOS  4 CARNES   Z A V A L E T A   DICIEMBRE    2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 12  DICIEMBRE   2021/CREDITOS  4 CARNES   Z A V A L E T A   DICIEMBRE    2021.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rouss\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL  ARCHIVO  2 0 2 1\CENTRAL # 12  DICIEMBRE   2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL  ARCHIVO  2 0 2 1\CENTRAL # 12  DICIEMBRE   2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146EF140-A567-4D17-B870-C7772978C7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="Hoja4" sheetId="8" r:id="rId5"/>
     <sheet name="Hoja1" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="22">
   <si>
     <t>REMISION</t>
   </si>
@@ -202,7 +201,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
@@ -818,6 +817,13 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -861,13 +867,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1603,7 +1602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF9900"/>
   </sheetPr>
@@ -1628,24 +1627,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="102"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="105"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -2437,10 +2436,10 @@
       <c r="D35" s="94">
         <v>2515</v>
       </c>
-      <c r="E35" s="110">
+      <c r="E35" s="95">
         <v>44536</v>
       </c>
-      <c r="F35" s="111">
+      <c r="F35" s="96">
         <v>2515</v>
       </c>
       <c r="G35" s="18">
@@ -2461,10 +2460,10 @@
       <c r="D36" s="94">
         <v>340</v>
       </c>
-      <c r="E36" s="110">
+      <c r="E36" s="95">
         <v>44536</v>
       </c>
-      <c r="F36" s="111">
+      <c r="F36" s="96">
         <v>340</v>
       </c>
       <c r="G36" s="18">
@@ -2486,10 +2485,10 @@
       <c r="D37" s="20">
         <v>15657</v>
       </c>
-      <c r="E37" s="110">
+      <c r="E37" s="95">
         <v>44536</v>
       </c>
-      <c r="F37" s="111">
+      <c r="F37" s="96">
         <v>15657</v>
       </c>
       <c r="G37" s="18">
@@ -2533,10 +2532,10 @@
       <c r="D39" s="20">
         <v>8585</v>
       </c>
-      <c r="E39" s="110">
+      <c r="E39" s="95">
         <v>44536</v>
       </c>
-      <c r="F39" s="111">
+      <c r="F39" s="96">
         <v>8585</v>
       </c>
       <c r="G39" s="18">
@@ -2557,10 +2556,10 @@
       <c r="D40" s="20">
         <v>259</v>
       </c>
-      <c r="E40" s="110">
+      <c r="E40" s="95">
         <v>44536</v>
       </c>
-      <c r="F40" s="111">
+      <c r="F40" s="96">
         <v>259</v>
       </c>
       <c r="G40" s="18">
@@ -2581,10 +2580,10 @@
       <c r="D41" s="20">
         <v>8605</v>
       </c>
-      <c r="E41" s="110">
+      <c r="E41" s="95">
         <v>44536</v>
       </c>
-      <c r="F41" s="111">
+      <c r="F41" s="96">
         <v>8605</v>
       </c>
       <c r="G41" s="18">
@@ -2605,10 +2604,10 @@
       <c r="D42" s="20">
         <v>235</v>
       </c>
-      <c r="E42" s="110">
+      <c r="E42" s="95">
         <v>44536</v>
       </c>
-      <c r="F42" s="111">
+      <c r="F42" s="96">
         <v>235</v>
       </c>
       <c r="G42" s="18">
@@ -2629,10 +2628,10 @@
       <c r="D43" s="94">
         <v>1618</v>
       </c>
-      <c r="E43" s="110">
+      <c r="E43" s="95">
         <v>44536</v>
       </c>
-      <c r="F43" s="111">
+      <c r="F43" s="96">
         <v>1618</v>
       </c>
       <c r="G43" s="18">
@@ -2653,10 +2652,10 @@
       <c r="D44" s="20">
         <v>784</v>
       </c>
-      <c r="E44" s="110">
+      <c r="E44" s="95">
         <v>44536</v>
       </c>
-      <c r="F44" s="111">
+      <c r="F44" s="96">
         <v>784</v>
       </c>
       <c r="G44" s="18">
@@ -2791,12 +2790,12 @@
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="37"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="96">
+      <c r="D55" s="99">
         <f>D51-F51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="97"/>
-      <c r="F55" s="98"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="101"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2810,11 +2809,11 @@
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="99" t="s">
+      <c r="D57" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="99"/>
-      <c r="F57" s="99"/>
+      <c r="E57" s="102"/>
+      <c r="F57" s="102"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2919,14 +2918,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2943,25 +2942,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="102"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="105"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3032,7 +3031,7 @@
       <c r="E5" s="20">
         <v>0</v>
       </c>
-      <c r="F5" s="112"/>
+      <c r="F5" s="97"/>
       <c r="G5" s="94"/>
       <c r="H5" s="18">
         <f t="shared" si="0"/>
@@ -3054,7 +3053,7 @@
       <c r="E6" s="20">
         <v>0</v>
       </c>
-      <c r="F6" s="112"/>
+      <c r="F6" s="97"/>
       <c r="G6" s="94"/>
       <c r="H6" s="18">
         <f t="shared" si="0"/>
@@ -3076,10 +3075,10 @@
       <c r="E7" s="20">
         <v>120</v>
       </c>
-      <c r="F7" s="110">
+      <c r="F7" s="95">
         <v>44536</v>
       </c>
-      <c r="G7" s="111">
+      <c r="G7" s="96">
         <v>120</v>
       </c>
       <c r="H7" s="18">
@@ -3102,10 +3101,10 @@
       <c r="E8" s="20">
         <v>307</v>
       </c>
-      <c r="F8" s="110">
+      <c r="F8" s="95">
         <v>44536</v>
       </c>
-      <c r="G8" s="111">
+      <c r="G8" s="96">
         <v>307</v>
       </c>
       <c r="H8" s="75">
@@ -3128,7 +3127,7 @@
       <c r="E9" s="20">
         <v>0</v>
       </c>
-      <c r="F9" s="112"/>
+      <c r="F9" s="97"/>
       <c r="G9" s="94"/>
       <c r="H9" s="18">
         <f t="shared" si="0"/>
@@ -3150,10 +3149,10 @@
       <c r="E10" s="20">
         <v>1333</v>
       </c>
-      <c r="F10" s="110">
+      <c r="F10" s="95">
         <v>44536</v>
       </c>
-      <c r="G10" s="111">
+      <c r="G10" s="96">
         <v>1333</v>
       </c>
       <c r="H10" s="18">
@@ -3176,10 +3175,10 @@
       <c r="E11" s="20">
         <v>150</v>
       </c>
-      <c r="F11" s="110">
+      <c r="F11" s="95">
         <v>44536</v>
       </c>
-      <c r="G11" s="111">
+      <c r="G11" s="96">
         <v>150</v>
       </c>
       <c r="H11" s="18">
@@ -3202,10 +3201,10 @@
       <c r="E12" s="20">
         <v>2460</v>
       </c>
-      <c r="F12" s="110">
+      <c r="F12" s="95">
         <v>44536</v>
       </c>
-      <c r="G12" s="111">
+      <c r="G12" s="96">
         <v>2460</v>
       </c>
       <c r="H12" s="18">
@@ -3228,10 +3227,10 @@
       <c r="E13" s="20">
         <v>8923</v>
       </c>
-      <c r="F13" s="110">
+      <c r="F13" s="95">
         <v>44536</v>
       </c>
-      <c r="G13" s="111">
+      <c r="G13" s="96">
         <v>8923</v>
       </c>
       <c r="H13" s="18">
@@ -3254,10 +3253,10 @@
       <c r="E14" s="20">
         <v>47911</v>
       </c>
-      <c r="F14" s="110">
+      <c r="F14" s="95">
         <v>44536</v>
       </c>
-      <c r="G14" s="111">
+      <c r="G14" s="96">
         <v>47911</v>
       </c>
       <c r="H14" s="18">
@@ -3280,7 +3279,7 @@
       <c r="E15" s="20">
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
+      <c r="F15" s="97"/>
       <c r="G15" s="94"/>
       <c r="H15" s="18">
         <f t="shared" si="0"/>
@@ -3302,10 +3301,10 @@
       <c r="E16" s="20">
         <v>622</v>
       </c>
-      <c r="F16" s="110">
+      <c r="F16" s="95">
         <v>44536</v>
       </c>
-      <c r="G16" s="111">
+      <c r="G16" s="96">
         <v>622</v>
       </c>
       <c r="H16" s="18">
@@ -3328,10 +3327,10 @@
       <c r="E17" s="20">
         <v>10714</v>
       </c>
-      <c r="F17" s="110">
+      <c r="F17" s="95">
         <v>44536</v>
       </c>
-      <c r="G17" s="111">
+      <c r="G17" s="96">
         <v>10714</v>
       </c>
       <c r="H17" s="18">
@@ -3354,10 +3353,10 @@
       <c r="E18" s="20">
         <v>1785</v>
       </c>
-      <c r="F18" s="110">
+      <c r="F18" s="95">
         <v>44536</v>
       </c>
-      <c r="G18" s="111">
+      <c r="G18" s="96">
         <v>1785</v>
       </c>
       <c r="H18" s="18">
@@ -3380,10 +3379,10 @@
       <c r="E19" s="20">
         <v>13805</v>
       </c>
-      <c r="F19" s="110">
+      <c r="F19" s="95">
         <v>44536</v>
       </c>
-      <c r="G19" s="111">
+      <c r="G19" s="96">
         <v>13805</v>
       </c>
       <c r="H19" s="18">
@@ -3406,7 +3405,7 @@
       <c r="E20" s="20">
         <v>0</v>
       </c>
-      <c r="F20" s="112"/>
+      <c r="F20" s="97"/>
       <c r="G20" s="94"/>
       <c r="H20" s="18">
         <f t="shared" si="0"/>
@@ -3428,10 +3427,10 @@
       <c r="E21" s="20">
         <v>18875</v>
       </c>
-      <c r="F21" s="110">
+      <c r="F21" s="95">
         <v>44536</v>
       </c>
-      <c r="G21" s="111">
+      <c r="G21" s="96">
         <v>18875</v>
       </c>
       <c r="H21" s="18">
@@ -3454,10 +3453,10 @@
       <c r="E22" s="20">
         <v>10476</v>
       </c>
-      <c r="F22" s="110">
+      <c r="F22" s="95">
         <v>44536</v>
       </c>
-      <c r="G22" s="111">
+      <c r="G22" s="96">
         <v>10476</v>
       </c>
       <c r="H22" s="18">
@@ -3480,8 +3479,8 @@
       <c r="E23" s="20">
         <v>0</v>
       </c>
-      <c r="F23" s="110"/>
-      <c r="G23" s="111"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="96"/>
       <c r="H23" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3502,10 +3501,10 @@
       <c r="E24" s="20">
         <v>219644</v>
       </c>
-      <c r="F24" s="110">
+      <c r="F24" s="95">
         <v>44536</v>
       </c>
-      <c r="G24" s="111">
+      <c r="G24" s="96">
         <v>219644</v>
       </c>
       <c r="H24" s="18">
@@ -3528,10 +3527,10 @@
       <c r="E25" s="20">
         <v>2546</v>
       </c>
-      <c r="F25" s="110">
+      <c r="F25" s="95">
         <v>44536</v>
       </c>
-      <c r="G25" s="111">
+      <c r="G25" s="96">
         <v>2546</v>
       </c>
       <c r="H25" s="18">
@@ -3554,8 +3553,8 @@
       <c r="E26" s="84">
         <v>39216</v>
       </c>
-      <c r="F26" s="110"/>
-      <c r="G26" s="111"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="96"/>
       <c r="H26" s="18">
         <f t="shared" si="0"/>
         <v>39216</v>
@@ -3576,10 +3575,10 @@
       <c r="E27" s="67">
         <v>3711</v>
       </c>
-      <c r="F27" s="110">
+      <c r="F27" s="95">
         <v>44536</v>
       </c>
-      <c r="G27" s="111">
+      <c r="G27" s="96">
         <v>3711</v>
       </c>
       <c r="H27" s="18">
@@ -3602,10 +3601,10 @@
       <c r="E28" s="67">
         <v>2005</v>
       </c>
-      <c r="F28" s="110">
+      <c r="F28" s="95">
         <v>44536</v>
       </c>
-      <c r="G28" s="111">
+      <c r="G28" s="96">
         <v>2005</v>
       </c>
       <c r="H28" s="18">
@@ -3628,10 +3627,10 @@
       <c r="E29" s="20">
         <v>4624</v>
       </c>
-      <c r="F29" s="110">
+      <c r="F29" s="95">
         <v>44536</v>
       </c>
-      <c r="G29" s="111">
+      <c r="G29" s="96">
         <v>4624</v>
       </c>
       <c r="H29" s="18">
@@ -3654,10 +3653,10 @@
       <c r="E30" s="20">
         <v>3512</v>
       </c>
-      <c r="F30" s="110">
+      <c r="F30" s="95">
         <v>44536</v>
       </c>
-      <c r="G30" s="111">
+      <c r="G30" s="96">
         <v>3512</v>
       </c>
       <c r="H30" s="75">
@@ -3680,10 +3679,10 @@
       <c r="E31" s="20">
         <v>178470</v>
       </c>
-      <c r="F31" s="110">
+      <c r="F31" s="95">
         <v>44536</v>
       </c>
-      <c r="G31" s="111">
+      <c r="G31" s="96">
         <v>178470</v>
       </c>
       <c r="H31" s="18">
@@ -3706,10 +3705,10 @@
       <c r="E32" s="20">
         <v>62080</v>
       </c>
-      <c r="F32" s="110">
+      <c r="F32" s="95">
         <v>44536</v>
       </c>
-      <c r="G32" s="111">
+      <c r="G32" s="96">
         <v>62080</v>
       </c>
       <c r="H32" s="18">
@@ -3732,10 +3731,10 @@
       <c r="E33" s="20">
         <v>101</v>
       </c>
-      <c r="F33" s="110">
+      <c r="F33" s="95">
         <v>44536</v>
       </c>
-      <c r="G33" s="111">
+      <c r="G33" s="96">
         <v>101</v>
       </c>
       <c r="H33" s="18">
@@ -3758,10 +3757,10 @@
       <c r="E34" s="20">
         <v>8588</v>
       </c>
-      <c r="F34" s="110">
+      <c r="F34" s="95">
         <v>44536</v>
       </c>
-      <c r="G34" s="111">
+      <c r="G34" s="96">
         <v>8580</v>
       </c>
       <c r="H34" s="18">
@@ -3784,10 +3783,10 @@
       <c r="E35" s="20">
         <v>768</v>
       </c>
-      <c r="F35" s="110">
+      <c r="F35" s="95">
         <v>44536</v>
       </c>
-      <c r="G35" s="111">
+      <c r="G35" s="96">
         <v>768</v>
       </c>
       <c r="H35" s="18">
@@ -3810,10 +3809,10 @@
       <c r="E36" s="20">
         <v>1190</v>
       </c>
-      <c r="F36" s="110">
+      <c r="F36" s="95">
         <v>44536</v>
       </c>
-      <c r="G36" s="111">
+      <c r="G36" s="96">
         <v>1190</v>
       </c>
       <c r="H36" s="18">
@@ -3862,10 +3861,10 @@
       <c r="E38" s="20">
         <v>3655</v>
       </c>
-      <c r="F38" s="110">
+      <c r="F38" s="95">
         <v>44536</v>
       </c>
-      <c r="G38" s="111">
+      <c r="G38" s="96">
         <v>3655</v>
       </c>
       <c r="H38" s="18">
@@ -3888,10 +3887,10 @@
       <c r="E39" s="20">
         <v>13576</v>
       </c>
-      <c r="F39" s="110">
+      <c r="F39" s="95">
         <v>44536</v>
       </c>
-      <c r="G39" s="111">
+      <c r="G39" s="96">
         <v>13576</v>
       </c>
       <c r="H39" s="18">
@@ -3914,8 +3913,8 @@
       <c r="E40" s="84">
         <v>6961</v>
       </c>
-      <c r="F40" s="110"/>
-      <c r="G40" s="111"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="96"/>
       <c r="H40" s="18">
         <f t="shared" si="0"/>
         <v>6961</v>
@@ -3936,10 +3935,10 @@
       <c r="E41" s="20">
         <v>15564</v>
       </c>
-      <c r="F41" s="110">
+      <c r="F41" s="95">
         <v>44536</v>
       </c>
-      <c r="G41" s="111">
+      <c r="G41" s="96">
         <v>15564</v>
       </c>
       <c r="H41" s="18">
@@ -3962,10 +3961,10 @@
       <c r="E42" s="20">
         <v>2279</v>
       </c>
-      <c r="F42" s="110">
+      <c r="F42" s="95">
         <v>44536</v>
       </c>
-      <c r="G42" s="111">
+      <c r="G42" s="96">
         <v>2279</v>
       </c>
       <c r="H42" s="18">
@@ -3988,10 +3987,10 @@
       <c r="E43" s="20">
         <v>8799</v>
       </c>
-      <c r="F43" s="110">
+      <c r="F43" s="95">
         <v>44536</v>
       </c>
-      <c r="G43" s="111">
+      <c r="G43" s="96">
         <v>8799</v>
       </c>
       <c r="H43" s="18">
@@ -4014,10 +4013,10 @@
       <c r="E44" s="20">
         <v>3337</v>
       </c>
-      <c r="F44" s="110">
+      <c r="F44" s="95">
         <v>44536</v>
       </c>
-      <c r="G44" s="111">
+      <c r="G44" s="96">
         <v>3337</v>
       </c>
       <c r="H44" s="18">
@@ -4040,8 +4039,8 @@
       <c r="E45" s="84">
         <v>757</v>
       </c>
-      <c r="F45" s="110"/>
-      <c r="G45" s="111"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="96"/>
       <c r="H45" s="18">
         <f t="shared" si="0"/>
         <v>757</v>
@@ -4062,7 +4061,7 @@
       <c r="E46" s="20">
         <v>0</v>
       </c>
-      <c r="F46" s="112"/>
+      <c r="F46" s="97"/>
       <c r="G46" s="94"/>
       <c r="H46" s="18">
         <f t="shared" si="0"/>
@@ -4084,7 +4083,7 @@
       <c r="E47" s="20">
         <v>0</v>
       </c>
-      <c r="F47" s="112"/>
+      <c r="F47" s="97"/>
       <c r="G47" s="94"/>
       <c r="H47" s="18">
         <f t="shared" si="0"/>
@@ -4106,10 +4105,10 @@
       <c r="E48" s="20">
         <v>376</v>
       </c>
-      <c r="F48" s="110">
+      <c r="F48" s="95">
         <v>44536</v>
       </c>
-      <c r="G48" s="111">
+      <c r="G48" s="96">
         <v>376</v>
       </c>
       <c r="H48" s="18">
@@ -4132,10 +4131,10 @@
       <c r="E49" s="20">
         <v>21811</v>
       </c>
-      <c r="F49" s="110">
+      <c r="F49" s="95">
         <v>44536</v>
       </c>
-      <c r="G49" s="111">
+      <c r="G49" s="96">
         <v>21811</v>
       </c>
       <c r="H49" s="18">
@@ -4158,10 +4157,10 @@
       <c r="E50" s="20">
         <v>126</v>
       </c>
-      <c r="F50" s="110">
+      <c r="F50" s="95">
         <v>44536</v>
       </c>
-      <c r="G50" s="111">
+      <c r="G50" s="96">
         <v>126</v>
       </c>
       <c r="H50" s="18">
@@ -4210,10 +4209,10 @@
       <c r="E52" s="20">
         <v>86291</v>
       </c>
-      <c r="F52" s="110">
+      <c r="F52" s="95">
         <v>44536</v>
       </c>
-      <c r="G52" s="111">
+      <c r="G52" s="96">
         <v>86291</v>
       </c>
       <c r="H52" s="18">
@@ -4236,10 +4235,10 @@
       <c r="E53" s="20">
         <v>161750</v>
       </c>
-      <c r="F53" s="110">
+      <c r="F53" s="95">
         <v>44536</v>
       </c>
-      <c r="G53" s="111">
+      <c r="G53" s="96">
         <v>161750</v>
       </c>
       <c r="H53" s="18">
@@ -4262,8 +4261,8 @@
       <c r="E54" s="84">
         <v>1421</v>
       </c>
-      <c r="F54" s="110"/>
-      <c r="G54" s="111"/>
+      <c r="F54" s="95"/>
+      <c r="G54" s="96"/>
       <c r="H54" s="18">
         <f t="shared" si="0"/>
         <v>1421</v>
@@ -4284,8 +4283,8 @@
       <c r="E55" s="84">
         <v>3135</v>
       </c>
-      <c r="F55" s="110"/>
-      <c r="G55" s="111"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="96"/>
       <c r="H55" s="18">
         <f t="shared" si="0"/>
         <v>3135</v>
@@ -4306,10 +4305,10 @@
       <c r="E56" s="20">
         <v>617</v>
       </c>
-      <c r="F56" s="110">
+      <c r="F56" s="95">
         <v>44536</v>
       </c>
-      <c r="G56" s="111">
+      <c r="G56" s="96">
         <v>617</v>
       </c>
       <c r="H56" s="18">
@@ -4332,10 +4331,10 @@
       <c r="E57" s="20">
         <v>1409</v>
       </c>
-      <c r="F57" s="110">
+      <c r="F57" s="95">
         <v>44536</v>
       </c>
-      <c r="G57" s="111">
+      <c r="G57" s="96">
         <v>1409</v>
       </c>
       <c r="H57" s="18">
@@ -4358,10 +4357,10 @@
       <c r="E58" s="20">
         <v>806</v>
       </c>
-      <c r="F58" s="110">
+      <c r="F58" s="95">
         <v>44536</v>
       </c>
-      <c r="G58" s="111">
+      <c r="G58" s="96">
         <v>806</v>
       </c>
       <c r="H58" s="18">
@@ -4384,10 +4383,10 @@
       <c r="E59" s="20">
         <v>50957</v>
       </c>
-      <c r="F59" s="110">
+      <c r="F59" s="95">
         <v>44536</v>
       </c>
-      <c r="G59" s="111">
+      <c r="G59" s="96">
         <v>50957</v>
       </c>
       <c r="H59" s="18">
@@ -4410,8 +4409,8 @@
       <c r="E60" s="84">
         <v>519</v>
       </c>
-      <c r="F60" s="110"/>
-      <c r="G60" s="111"/>
+      <c r="F60" s="95"/>
+      <c r="G60" s="96"/>
       <c r="H60" s="18">
         <f t="shared" si="0"/>
         <v>519</v>
@@ -4432,10 +4431,10 @@
       <c r="E61" s="20">
         <v>12005</v>
       </c>
-      <c r="F61" s="110">
+      <c r="F61" s="95">
         <v>44536</v>
       </c>
-      <c r="G61" s="111">
+      <c r="G61" s="96">
         <v>12005</v>
       </c>
       <c r="H61" s="18">
@@ -4458,10 +4457,10 @@
       <c r="E62" s="20">
         <v>115785</v>
       </c>
-      <c r="F62" s="110">
+      <c r="F62" s="95">
         <v>44536</v>
       </c>
-      <c r="G62" s="111">
+      <c r="G62" s="96">
         <v>115785</v>
       </c>
       <c r="H62" s="18">
@@ -4484,10 +4483,10 @@
       <c r="E63" s="20">
         <v>4289</v>
       </c>
-      <c r="F63" s="110">
+      <c r="F63" s="95">
         <v>44536</v>
       </c>
-      <c r="G63" s="111">
+      <c r="G63" s="96">
         <v>4289</v>
       </c>
       <c r="H63" s="18">
@@ -4510,8 +4509,8 @@
       <c r="E64" s="84">
         <v>12020</v>
       </c>
-      <c r="F64" s="110"/>
-      <c r="G64" s="111">
+      <c r="F64" s="95"/>
+      <c r="G64" s="96">
         <v>0</v>
       </c>
       <c r="H64" s="18">
@@ -4665,12 +4664,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="96">
+      <c r="E76" s="99">
         <f>E72-G72</f>
         <v>64037</v>
       </c>
-      <c r="F76" s="97"/>
-      <c r="G76" s="98"/>
+      <c r="F76" s="100"/>
+      <c r="G76" s="101"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -4686,11 +4685,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="99" t="s">
+      <c r="E78" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="99"/>
-      <c r="G78" s="99"/>
+      <c r="F78" s="102"/>
+      <c r="G78" s="102"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -4807,14 +4806,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFCC0099"/>
   </sheetPr>
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4831,25 +4830,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="102"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="105"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -4880,94 +4879,130 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="12">
+        <v>44537</v>
+      </c>
       <c r="B4" s="13">
         <v>103</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="15">
+        <v>7232</v>
+      </c>
       <c r="F4" s="16"/>
       <c r="G4" s="17"/>
       <c r="H4" s="18">
         <f t="shared" ref="H4:H71" si="0">E4-G4</f>
-        <v>0</v>
+        <v>7232</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="12">
+        <v>44537</v>
+      </c>
       <c r="B5" s="13">
         <v>104</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="20"/>
+      <c r="D5" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="20">
+        <v>7667</v>
+      </c>
       <c r="F5" s="21"/>
       <c r="G5" s="22"/>
       <c r="H5" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7667</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="12">
+        <v>44539</v>
+      </c>
       <c r="B6" s="13">
         <v>105</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="20">
+        <v>11332</v>
+      </c>
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
       <c r="H6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11332</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="23">
+        <v>44539</v>
+      </c>
       <c r="B7" s="13">
         <v>106</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="20">
+        <v>19750</v>
+      </c>
       <c r="F7" s="21"/>
       <c r="G7" s="22"/>
       <c r="H7" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19750</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
+      <c r="A8" s="89">
+        <v>44540</v>
+      </c>
       <c r="B8" s="13">
         <v>107</v>
       </c>
       <c r="C8" s="90"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="20"/>
+      <c r="D8" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="20">
+        <v>7987</v>
+      </c>
       <c r="F8" s="21"/>
       <c r="G8" s="22"/>
       <c r="H8" s="75">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7987</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="12">
+        <v>44541</v>
+      </c>
       <c r="B9" s="13">
         <v>108</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
+      <c r="D9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="20">
+        <v>3462</v>
+      </c>
       <c r="F9" s="21"/>
       <c r="G9" s="22"/>
       <c r="H9" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -5894,7 +5929,7 @@
       <c r="D72" s="2"/>
       <c r="E72" s="39">
         <f>SUM(E4:E71)</f>
-        <v>0</v>
+        <v>57430</v>
       </c>
       <c r="F72" s="39"/>
       <c r="G72" s="39">
@@ -5903,7 +5938,7 @@
       </c>
       <c r="H72" s="40">
         <f>SUM(H4:H71)</f>
-        <v>0</v>
+        <v>57430</v>
       </c>
       <c r="I72" s="2"/>
     </row>
@@ -5945,12 +5980,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="96">
+      <c r="E76" s="99">
         <f>E72-G72</f>
-        <v>0</v>
-      </c>
-      <c r="F76" s="97"/>
-      <c r="G76" s="98"/>
+        <v>57430</v>
+      </c>
+      <c r="F76" s="100"/>
+      <c r="G76" s="101"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -5966,11 +6001,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="99" t="s">
+      <c r="E78" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="99"/>
-      <c r="G78" s="99"/>
+      <c r="F78" s="102"/>
+      <c r="G78" s="102"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -6081,12 +6116,13 @@
     <mergeCell ref="E78:G78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6098,7 +6134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -6116,26 +6152,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
@@ -7010,7 +7046,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G63">
+  <sortState ref="B3:G63">
     <sortCondition ref="D3:D63"/>
   </sortState>
   <mergeCells count="2">
@@ -7022,7 +7058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7045,27 +7081,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
     </row>
@@ -7260,11 +7296,11 @@
         <v>161427</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="106">
+      <c r="G11" s="109">
         <f>SUM(H4:H10)</f>
         <v>48874</v>
       </c>
-      <c r="H11" s="107"/>
+      <c r="H11" s="110"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -8639,11 +8675,11 @@
         <v>76469.81</v>
       </c>
       <c r="F81" s="61"/>
-      <c r="G81" s="108">
+      <c r="G81" s="111">
         <f>SUM(H67:H80)</f>
         <v>76469.81</v>
       </c>
-      <c r="H81" s="109"/>
+      <c r="H81" s="112"/>
     </row>
     <row r="82" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
@@ -8731,12 +8767,12 @@
       <c r="B88" s="37"/>
       <c r="C88" s="38"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="96">
+      <c r="E88" s="99">
         <f>E84-G84</f>
         <v>1332859.9100000001</v>
       </c>
-      <c r="F88" s="97"/>
-      <c r="G88" s="98"/>
+      <c r="F88" s="100"/>
+      <c r="G88" s="101"/>
       <c r="H88" s="44"/>
       <c r="I88" s="2"/>
     </row>
@@ -8753,11 +8789,11 @@
       <c r="B90" s="37"/>
       <c r="C90" s="38"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="99" t="s">
+      <c r="E90" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="99"/>
-      <c r="G90" s="99"/>
+      <c r="F90" s="102"/>
+      <c r="G90" s="102"/>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -8861,7 +8897,7 @@
       <c r="I101" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H64">
+  <sortState ref="A4:H64">
     <sortCondition ref="D4:D64"/>
   </sortState>
   <mergeCells count="6">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 12  DICIEMBRE   2021/CREDITOS  4 CARNES   Z A V A L E T A   DICIEMBRE    2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 12  DICIEMBRE   2021/CREDITOS  4 CARNES   Z A V A L E T A   DICIEMBRE    2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="23">
   <si>
     <t>REMISION</t>
   </si>
@@ -196,6 +196,9 @@
       </rPr>
       <t xml:space="preserve">        2 0 2 1</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ABASTOS HERRADURA </t>
   </si>
 </sst>
 </file>
@@ -361,7 +364,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +416,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -869,6 +878,10 @@
     <xf numFmtId="166" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -878,6 +891,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFCC0099"/>
       <color rgb="FFCC99FF"/>
@@ -2924,8 +2938,8 @@
   </sheetPr>
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3550,14 +3564,18 @@
       <c r="D26" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="84">
+      <c r="E26" s="20">
         <v>39216</v>
       </c>
-      <c r="F26" s="95"/>
-      <c r="G26" s="96"/>
+      <c r="F26" s="113">
+        <v>44547</v>
+      </c>
+      <c r="G26" s="114">
+        <v>39216</v>
+      </c>
       <c r="H26" s="18">
         <f t="shared" si="0"/>
-        <v>39216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3913,11 +3931,15 @@
       <c r="E40" s="84">
         <v>6961</v>
       </c>
-      <c r="F40" s="95"/>
-      <c r="G40" s="96"/>
+      <c r="F40" s="113">
+        <v>44547</v>
+      </c>
+      <c r="G40" s="114">
+        <v>6961</v>
+      </c>
       <c r="H40" s="18">
         <f t="shared" si="0"/>
-        <v>6961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4036,14 +4058,18 @@
       <c r="D45" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="84">
+      <c r="E45" s="20">
         <v>757</v>
       </c>
-      <c r="F45" s="95"/>
-      <c r="G45" s="96"/>
+      <c r="F45" s="113">
+        <v>44547</v>
+      </c>
+      <c r="G45" s="114">
+        <v>757</v>
+      </c>
       <c r="H45" s="18">
         <f t="shared" si="0"/>
-        <v>757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4258,14 +4284,18 @@
       <c r="D54" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="84">
+      <c r="E54" s="20">
         <v>1421</v>
       </c>
-      <c r="F54" s="95"/>
-      <c r="G54" s="96"/>
+      <c r="F54" s="113">
+        <v>44547</v>
+      </c>
+      <c r="G54" s="114">
+        <v>1421</v>
+      </c>
       <c r="H54" s="18">
         <f t="shared" si="0"/>
-        <v>1421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4409,11 +4439,15 @@
       <c r="E60" s="84">
         <v>519</v>
       </c>
-      <c r="F60" s="95"/>
-      <c r="G60" s="96"/>
+      <c r="F60" s="113">
+        <v>44547</v>
+      </c>
+      <c r="G60" s="114">
+        <v>519</v>
+      </c>
       <c r="H60" s="18">
         <f t="shared" si="0"/>
-        <v>519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4618,11 +4652,11 @@
       <c r="F72" s="39"/>
       <c r="G72" s="39">
         <f>SUM(G4:G71)</f>
-        <v>1222373</v>
+        <v>1271247</v>
       </c>
       <c r="H72" s="40">
         <f>SUM(H4:H71)</f>
-        <v>64037</v>
+        <v>15163</v>
       </c>
       <c r="I72" s="2"/>
     </row>
@@ -4666,7 +4700,7 @@
       <c r="D76" s="2"/>
       <c r="E76" s="99">
         <f>E72-G72</f>
-        <v>64037</v>
+        <v>15163</v>
       </c>
       <c r="F76" s="100"/>
       <c r="G76" s="101"/>
@@ -4812,8 +4846,8 @@
   </sheetPr>
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5006,123 +5040,179 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="12">
+        <v>44543</v>
+      </c>
       <c r="B10" s="13">
         <v>109</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
+      <c r="D10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="20">
+        <v>363</v>
+      </c>
+      <c r="F10" s="21">
+        <v>44543</v>
+      </c>
+      <c r="G10" s="22">
+        <v>363</v>
+      </c>
       <c r="H10" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="12">
+        <v>44543</v>
+      </c>
       <c r="B11" s="13">
         <v>110</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
+      <c r="D11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="20">
+        <v>5116</v>
+      </c>
+      <c r="F11" s="21">
+        <v>44544</v>
+      </c>
+      <c r="G11" s="22">
+        <v>5116</v>
+      </c>
       <c r="H11" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="12">
+        <v>44544</v>
+      </c>
       <c r="B12" s="13">
         <v>111</v>
       </c>
       <c r="C12" s="24"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
+      <c r="D12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="20">
+        <v>6618</v>
+      </c>
       <c r="F12" s="21"/>
       <c r="G12" s="22"/>
       <c r="H12" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6618</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="12">
+        <v>44545</v>
+      </c>
       <c r="B13" s="13">
         <v>112</v>
       </c>
       <c r="C13" s="25"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
+      <c r="D13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="20">
+        <v>8241</v>
+      </c>
       <c r="F13" s="21"/>
       <c r="G13" s="22"/>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8241</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="12">
+        <v>44545</v>
+      </c>
       <c r="B14" s="13">
         <v>113</v>
       </c>
       <c r="C14" s="24"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="20"/>
+      <c r="D14" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="20">
+        <v>5255</v>
+      </c>
       <c r="F14" s="21"/>
       <c r="G14" s="22"/>
       <c r="H14" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5255</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="A15" s="12">
+        <v>44545</v>
+      </c>
       <c r="B15" s="13">
         <v>114</v>
       </c>
       <c r="C15" s="25"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="20"/>
+      <c r="D15" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="20">
+        <v>13074</v>
+      </c>
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
       <c r="H15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13074</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="12">
+        <v>44546</v>
+      </c>
       <c r="B16" s="13">
         <v>115</v>
       </c>
       <c r="C16" s="24"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
+      <c r="D16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="20">
+        <v>44476</v>
+      </c>
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
       <c r="H16" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44476</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="12">
+        <v>44547</v>
+      </c>
       <c r="B17" s="13">
         <v>116</v>
       </c>
       <c r="C17" s="25"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
+      <c r="D17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="20">
+        <v>12113</v>
+      </c>
       <c r="F17" s="21"/>
       <c r="G17" s="22"/>
       <c r="H17" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12113</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -5929,16 +6019,16 @@
       <c r="D72" s="2"/>
       <c r="E72" s="39">
         <f>SUM(E4:E71)</f>
-        <v>57430</v>
+        <v>152686</v>
       </c>
       <c r="F72" s="39"/>
       <c r="G72" s="39">
         <f>SUM(G4:G71)</f>
-        <v>0</v>
+        <v>5479</v>
       </c>
       <c r="H72" s="40">
         <f>SUM(H4:H71)</f>
-        <v>57430</v>
+        <v>147207</v>
       </c>
       <c r="I72" s="2"/>
     </row>
@@ -5982,7 +6072,7 @@
       <c r="D76" s="2"/>
       <c r="E76" s="99">
         <f>E72-G72</f>
-        <v>57430</v>
+        <v>147207</v>
       </c>
       <c r="F76" s="100"/>
       <c r="G76" s="101"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 12  DICIEMBRE   2021/CREDITOS  4 CARNES   Z A V A L E T A   DICIEMBRE    2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 12  DICIEMBRE   2021/CREDITOS  4 CARNES   Z A V A L E T A   DICIEMBRE    2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="26">
   <si>
     <t>REMISION</t>
   </si>
@@ -199,6 +199,15 @@
   </si>
   <si>
     <t xml:space="preserve">ABASTOS HERRADURA </t>
+  </si>
+  <si>
+    <t>COMPAITO CHOLULA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABASTO DE 4 CARNES  11 SUR </t>
+  </si>
+  <si>
+    <t>JAVIER NEGRETE</t>
   </si>
 </sst>
 </file>
@@ -636,7 +645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -833,6 +842,10 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -878,10 +891,10 @@
     <xf numFmtId="166" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="10" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1641,24 +1654,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="105"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="107"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -2804,12 +2817,12 @@
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="37"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="99">
+      <c r="D55" s="101">
         <f>D51-F51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="100"/>
-      <c r="F55" s="101"/>
+      <c r="E55" s="102"/>
+      <c r="F55" s="103"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2823,11 +2836,11 @@
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="102" t="s">
+      <c r="D57" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="102"/>
-      <c r="F57" s="102"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="104"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2938,8 +2951,8 @@
   </sheetPr>
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2956,25 +2969,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="105"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="107"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3567,10 +3580,10 @@
       <c r="E26" s="20">
         <v>39216</v>
       </c>
-      <c r="F26" s="113">
+      <c r="F26" s="98">
         <v>44547</v>
       </c>
-      <c r="G26" s="114">
+      <c r="G26" s="99">
         <v>39216</v>
       </c>
       <c r="H26" s="18">
@@ -3779,11 +3792,11 @@
         <v>44536</v>
       </c>
       <c r="G34" s="96">
-        <v>8580</v>
+        <v>8588</v>
       </c>
       <c r="H34" s="18">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3931,10 +3944,10 @@
       <c r="E40" s="84">
         <v>6961</v>
       </c>
-      <c r="F40" s="113">
+      <c r="F40" s="98">
         <v>44547</v>
       </c>
-      <c r="G40" s="114">
+      <c r="G40" s="99">
         <v>6961</v>
       </c>
       <c r="H40" s="18">
@@ -4061,10 +4074,10 @@
       <c r="E45" s="20">
         <v>757</v>
       </c>
-      <c r="F45" s="113">
+      <c r="F45" s="98">
         <v>44547</v>
       </c>
-      <c r="G45" s="114">
+      <c r="G45" s="99">
         <v>757</v>
       </c>
       <c r="H45" s="18">
@@ -4287,10 +4300,10 @@
       <c r="E54" s="20">
         <v>1421</v>
       </c>
-      <c r="F54" s="113">
+      <c r="F54" s="98">
         <v>44547</v>
       </c>
-      <c r="G54" s="114">
+      <c r="G54" s="99">
         <v>1421</v>
       </c>
       <c r="H54" s="18">
@@ -4313,11 +4326,15 @@
       <c r="E55" s="84">
         <v>3135</v>
       </c>
-      <c r="F55" s="95"/>
-      <c r="G55" s="96"/>
+      <c r="F55" s="115">
+        <v>44548</v>
+      </c>
+      <c r="G55" s="116">
+        <v>3135</v>
+      </c>
       <c r="H55" s="18">
         <f t="shared" si="0"/>
-        <v>3135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4439,10 +4456,10 @@
       <c r="E60" s="84">
         <v>519</v>
       </c>
-      <c r="F60" s="113">
+      <c r="F60" s="98">
         <v>44547</v>
       </c>
-      <c r="G60" s="114">
+      <c r="G60" s="99">
         <v>519</v>
       </c>
       <c r="H60" s="18">
@@ -4652,11 +4669,11 @@
       <c r="F72" s="39"/>
       <c r="G72" s="39">
         <f>SUM(G4:G71)</f>
-        <v>1271247</v>
+        <v>1274390</v>
       </c>
       <c r="H72" s="40">
         <f>SUM(H4:H71)</f>
-        <v>15163</v>
+        <v>12020</v>
       </c>
       <c r="I72" s="2"/>
     </row>
@@ -4698,12 +4715,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="99">
+      <c r="E76" s="101">
         <f>E72-G72</f>
-        <v>15163</v>
-      </c>
-      <c r="F76" s="100"/>
-      <c r="G76" s="101"/>
+        <v>12020</v>
+      </c>
+      <c r="F76" s="102"/>
+      <c r="G76" s="103"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -4719,11 +4736,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="102" t="s">
+      <c r="E78" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="102"/>
-      <c r="G78" s="102"/>
+      <c r="F78" s="104"/>
+      <c r="G78" s="104"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -4846,8 +4863,8 @@
   </sheetPr>
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4864,25 +4881,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="105"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="107"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -4990,11 +5007,15 @@
       <c r="E7" s="20">
         <v>19750</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="69">
+        <v>44553</v>
+      </c>
+      <c r="G7" s="70">
+        <v>19750</v>
+      </c>
       <c r="H7" s="18">
         <f t="shared" si="0"/>
-        <v>19750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -5053,10 +5074,10 @@
       <c r="E10" s="20">
         <v>363</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="69">
         <v>44543</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="70">
         <v>363</v>
       </c>
       <c r="H10" s="18">
@@ -5078,10 +5099,10 @@
       <c r="E11" s="20">
         <v>5116</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="69">
         <v>44544</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="70">
         <v>5116</v>
       </c>
       <c r="H11" s="18">
@@ -5216,108 +5237,154 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="12">
+        <v>44550</v>
+      </c>
       <c r="B18" s="13">
         <v>117</v>
       </c>
       <c r="C18" s="24"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
+      <c r="D18" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="20">
+        <v>23400</v>
+      </c>
       <c r="F18" s="21"/>
       <c r="G18" s="22"/>
       <c r="H18" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23400</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="12">
+        <v>44550</v>
+      </c>
       <c r="B19" s="13">
         <v>118</v>
       </c>
       <c r="C19" s="25"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
+      <c r="D19" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="20">
+        <v>1348</v>
+      </c>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
       <c r="H19" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="12">
+        <v>44551</v>
+      </c>
       <c r="B20" s="13">
         <v>119</v>
       </c>
       <c r="C20" s="24"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="20"/>
+      <c r="D20" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="20">
+        <v>1</v>
+      </c>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
       <c r="H20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="12">
+        <v>44551</v>
+      </c>
       <c r="B21" s="13">
         <v>120</v>
       </c>
       <c r="C21" s="24"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
+      <c r="D21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="20">
+        <v>405</v>
+      </c>
+      <c r="F21" s="69">
+        <v>44552</v>
+      </c>
+      <c r="G21" s="70">
+        <v>405</v>
+      </c>
       <c r="H21" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="12">
+        <v>44553</v>
+      </c>
       <c r="B22" s="13">
         <v>121</v>
       </c>
       <c r="C22" s="24"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
+      <c r="D22" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="20">
+        <v>370</v>
+      </c>
       <c r="F22" s="21"/>
       <c r="G22" s="22"/>
       <c r="H22" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="12">
+        <v>44553</v>
+      </c>
       <c r="B23" s="13">
         <v>122</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="20">
+        <v>1881</v>
+      </c>
       <c r="F23" s="21"/>
       <c r="G23" s="22"/>
       <c r="H23" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+      <c r="A24" s="12">
+        <v>44553</v>
+      </c>
       <c r="B24" s="13">
         <v>123</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
+      <c r="D24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="20">
+        <v>745</v>
+      </c>
       <c r="F24" s="21"/>
       <c r="G24" s="22"/>
       <c r="H24" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>745</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6019,16 +6086,16 @@
       <c r="D72" s="2"/>
       <c r="E72" s="39">
         <f>SUM(E4:E71)</f>
-        <v>152686</v>
+        <v>180836</v>
       </c>
       <c r="F72" s="39"/>
       <c r="G72" s="39">
         <f>SUM(G4:G71)</f>
-        <v>5479</v>
+        <v>25634</v>
       </c>
       <c r="H72" s="40">
         <f>SUM(H4:H71)</f>
-        <v>147207</v>
+        <v>155202</v>
       </c>
       <c r="I72" s="2"/>
     </row>
@@ -6070,12 +6137,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="99">
+      <c r="E76" s="101">
         <f>E72-G72</f>
-        <v>147207</v>
-      </c>
-      <c r="F76" s="100"/>
-      <c r="G76" s="101"/>
+        <v>155202</v>
+      </c>
+      <c r="F76" s="102"/>
+      <c r="G76" s="103"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -6091,11 +6158,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="102" t="s">
+      <c r="E78" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="102"/>
-      <c r="G78" s="102"/>
+      <c r="F78" s="104"/>
+      <c r="G78" s="104"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -6242,26 +6309,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
@@ -7171,27 +7238,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
     </row>
@@ -7386,11 +7453,11 @@
         <v>161427</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="109">
+      <c r="G11" s="111">
         <f>SUM(H4:H10)</f>
         <v>48874</v>
       </c>
-      <c r="H11" s="110"/>
+      <c r="H11" s="112"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -8765,11 +8832,11 @@
         <v>76469.81</v>
       </c>
       <c r="F81" s="61"/>
-      <c r="G81" s="111">
+      <c r="G81" s="113">
         <f>SUM(H67:H80)</f>
         <v>76469.81</v>
       </c>
-      <c r="H81" s="112"/>
+      <c r="H81" s="114"/>
     </row>
     <row r="82" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
@@ -8857,12 +8924,12 @@
       <c r="B88" s="37"/>
       <c r="C88" s="38"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="99">
+      <c r="E88" s="101">
         <f>E84-G84</f>
         <v>1332859.9100000001</v>
       </c>
-      <c r="F88" s="100"/>
-      <c r="G88" s="101"/>
+      <c r="F88" s="102"/>
+      <c r="G88" s="103"/>
       <c r="H88" s="44"/>
       <c r="I88" s="2"/>
     </row>
@@ -8879,11 +8946,11 @@
       <c r="B90" s="37"/>
       <c r="C90" s="38"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="102" t="s">
+      <c r="E90" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="102"/>
-      <c r="G90" s="102"/>
+      <c r="F90" s="104"/>
+      <c r="G90" s="104"/>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 12  DICIEMBRE   2021/CREDITOS  4 CARNES   Z A V A L E T A   DICIEMBRE    2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 12  DICIEMBRE   2021/CREDITOS  4 CARNES   Z A V A L E T A   DICIEMBRE    2021.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="26">
   <si>
     <t>REMISION</t>
   </si>
@@ -846,6 +846,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -891,10 +895,6 @@
     <xf numFmtId="166" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1654,24 +1654,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="107"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="109"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -2817,12 +2817,12 @@
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="37"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="101">
+      <c r="D55" s="103">
         <f>D51-F51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="102"/>
-      <c r="F55" s="103"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="105"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2836,11 +2836,11 @@
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="104" t="s">
+      <c r="D57" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="104"/>
-      <c r="F57" s="104"/>
+      <c r="E57" s="106"/>
+      <c r="F57" s="106"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2969,25 +2969,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="107"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="109"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -4326,10 +4326,10 @@
       <c r="E55" s="84">
         <v>3135</v>
       </c>
-      <c r="F55" s="115">
+      <c r="F55" s="100">
         <v>44548</v>
       </c>
-      <c r="G55" s="116">
+      <c r="G55" s="101">
         <v>3135</v>
       </c>
       <c r="H55" s="18">
@@ -4715,12 +4715,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="101">
+      <c r="E76" s="103">
         <f>E72-G72</f>
         <v>12020</v>
       </c>
-      <c r="F76" s="102"/>
-      <c r="G76" s="103"/>
+      <c r="F76" s="104"/>
+      <c r="G76" s="105"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -4736,11 +4736,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="104" t="s">
+      <c r="E78" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="104"/>
-      <c r="G78" s="104"/>
+      <c r="F78" s="106"/>
+      <c r="G78" s="106"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -4863,8 +4863,8 @@
   </sheetPr>
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:G7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4881,25 +4881,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="107"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="109"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -5388,33 +5388,45 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="12">
+        <v>44557</v>
+      </c>
       <c r="B25" s="13">
         <v>124</v>
       </c>
       <c r="C25" s="24"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
+      <c r="D25" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="20">
+        <v>218111</v>
+      </c>
       <c r="F25" s="21"/>
       <c r="G25" s="22"/>
       <c r="H25" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>218111</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="12">
+        <v>44557</v>
+      </c>
       <c r="B26" s="13">
         <v>125</v>
       </c>
       <c r="C26" s="24"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
+      <c r="D26" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="20">
+        <v>469</v>
+      </c>
       <c r="F26" s="21"/>
       <c r="G26" s="22"/>
       <c r="H26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>469</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -6086,7 +6098,7 @@
       <c r="D72" s="2"/>
       <c r="E72" s="39">
         <f>SUM(E4:E71)</f>
-        <v>180836</v>
+        <v>399416</v>
       </c>
       <c r="F72" s="39"/>
       <c r="G72" s="39">
@@ -6095,7 +6107,7 @@
       </c>
       <c r="H72" s="40">
         <f>SUM(H4:H71)</f>
-        <v>155202</v>
+        <v>373782</v>
       </c>
       <c r="I72" s="2"/>
     </row>
@@ -6137,12 +6149,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="101">
+      <c r="E76" s="103">
         <f>E72-G72</f>
-        <v>155202</v>
-      </c>
-      <c r="F76" s="102"/>
-      <c r="G76" s="103"/>
+        <v>373782</v>
+      </c>
+      <c r="F76" s="104"/>
+      <c r="G76" s="105"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -6158,11 +6170,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="104" t="s">
+      <c r="E78" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="104"/>
-      <c r="G78" s="104"/>
+      <c r="F78" s="106"/>
+      <c r="G78" s="106"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -6309,26 +6321,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
@@ -7238,27 +7250,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
     </row>
@@ -7453,11 +7465,11 @@
         <v>161427</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="111">
+      <c r="G11" s="113">
         <f>SUM(H4:H10)</f>
         <v>48874</v>
       </c>
-      <c r="H11" s="112"/>
+      <c r="H11" s="114"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -8832,11 +8844,11 @@
         <v>76469.81</v>
       </c>
       <c r="F81" s="61"/>
-      <c r="G81" s="113">
+      <c r="G81" s="115">
         <f>SUM(H67:H80)</f>
         <v>76469.81</v>
       </c>
-      <c r="H81" s="114"/>
+      <c r="H81" s="116"/>
     </row>
     <row r="82" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
@@ -8924,12 +8936,12 @@
       <c r="B88" s="37"/>
       <c r="C88" s="38"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="101">
+      <c r="E88" s="103">
         <f>E84-G84</f>
         <v>1332859.9100000001</v>
       </c>
-      <c r="F88" s="102"/>
-      <c r="G88" s="103"/>
+      <c r="F88" s="104"/>
+      <c r="G88" s="105"/>
       <c r="H88" s="44"/>
       <c r="I88" s="2"/>
     </row>
@@ -8946,11 +8958,11 @@
       <c r="B90" s="37"/>
       <c r="C90" s="38"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="104" t="s">
+      <c r="E90" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="104"/>
-      <c r="G90" s="104"/>
+      <c r="F90" s="106"/>
+      <c r="G90" s="106"/>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 12  DICIEMBRE   2021/CREDITOS  4 CARNES   Z A V A L E T A   DICIEMBRE    2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 12  DICIEMBRE   2021/CREDITOS  4 CARNES   Z A V A L E T A   DICIEMBRE    2021.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="28">
   <si>
     <t>REMISION</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>JAVIER NEGRETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBRADOR   </t>
+  </si>
+  <si>
+    <t>taras</t>
   </si>
 </sst>
 </file>
@@ -645,7 +651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -846,10 +852,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1654,24 +1656,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="109"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="107"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -2817,12 +2819,12 @@
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="37"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="103">
+      <c r="D55" s="101">
         <f>D51-F51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="104"/>
-      <c r="F55" s="105"/>
+      <c r="E55" s="102"/>
+      <c r="F55" s="103"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2836,11 +2838,11 @@
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="106" t="s">
+      <c r="D57" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="106"/>
-      <c r="F57" s="106"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="104"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2952,7 +2954,7 @@
   <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2969,25 +2971,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="109"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="107"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -4326,10 +4328,10 @@
       <c r="E55" s="84">
         <v>3135</v>
       </c>
-      <c r="F55" s="100">
+      <c r="F55" s="98">
         <v>44548</v>
       </c>
-      <c r="G55" s="101">
+      <c r="G55" s="99">
         <v>3135</v>
       </c>
       <c r="H55" s="18">
@@ -4715,12 +4717,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="103">
+      <c r="E76" s="101">
         <f>E72-G72</f>
         <v>12020</v>
       </c>
-      <c r="F76" s="104"/>
-      <c r="G76" s="105"/>
+      <c r="F76" s="102"/>
+      <c r="G76" s="103"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -4736,11 +4738,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="106" t="s">
+      <c r="E78" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="106"/>
-      <c r="G78" s="106"/>
+      <c r="F78" s="104"/>
+      <c r="G78" s="104"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -4863,8 +4865,8 @@
   </sheetPr>
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4881,25 +4883,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="109"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="107"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -5007,10 +5009,10 @@
       <c r="E7" s="20">
         <v>19750</v>
       </c>
-      <c r="F7" s="69">
+      <c r="F7" s="21">
         <v>44553</v>
       </c>
-      <c r="G7" s="70">
+      <c r="G7" s="22">
         <v>19750</v>
       </c>
       <c r="H7" s="18">
@@ -5099,10 +5101,10 @@
       <c r="E11" s="20">
         <v>5116</v>
       </c>
-      <c r="F11" s="69">
+      <c r="F11" s="21">
         <v>44544</v>
       </c>
-      <c r="G11" s="70">
+      <c r="G11" s="22">
         <v>5116</v>
       </c>
       <c r="H11" s="18">
@@ -5166,11 +5168,15 @@
       <c r="E14" s="20">
         <v>5255</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
+      <c r="F14" s="21">
+        <v>44559</v>
+      </c>
+      <c r="G14" s="22">
+        <v>5255</v>
+      </c>
       <c r="H14" s="18">
         <f t="shared" si="0"/>
-        <v>5255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -5313,10 +5319,10 @@
       <c r="E21" s="20">
         <v>405</v>
       </c>
-      <c r="F21" s="69">
+      <c r="F21" s="21">
         <v>44552</v>
       </c>
-      <c r="G21" s="70">
+      <c r="G21" s="22">
         <v>405</v>
       </c>
       <c r="H21" s="18">
@@ -5430,59 +5436,93 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="A27" s="12">
+        <v>44558</v>
+      </c>
       <c r="B27" s="13">
         <v>126</v>
       </c>
       <c r="C27" s="24"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
+      <c r="D27" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="20">
+        <v>16564</v>
+      </c>
       <c r="F27" s="21"/>
       <c r="G27" s="22"/>
       <c r="H27" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16564</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="12">
+        <v>44558</v>
+      </c>
       <c r="B28" s="13">
         <v>127</v>
       </c>
       <c r="C28" s="24"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
+      <c r="D28" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="20">
+        <v>8467</v>
+      </c>
+      <c r="F28" s="21">
+        <v>44560</v>
+      </c>
+      <c r="G28" s="22">
+        <v>8467</v>
+      </c>
       <c r="H28" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+      <c r="A29" s="12">
+        <v>44558</v>
+      </c>
       <c r="B29" s="13">
         <v>128</v>
       </c>
       <c r="C29" s="24"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
+      <c r="D29" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="20">
+        <v>3552</v>
+      </c>
+      <c r="F29" s="21">
+        <v>44560</v>
+      </c>
+      <c r="G29" s="22">
+        <v>3552</v>
+      </c>
       <c r="H29" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+      <c r="A30" s="12">
+        <v>44559</v>
+      </c>
       <c r="B30" s="13">
         <v>129</v>
       </c>
       <c r="C30" s="24"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="21"/>
+      <c r="D30" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="20">
+        <v>0</v>
+      </c>
+      <c r="F30" s="85" t="s">
+        <v>27</v>
+      </c>
       <c r="G30" s="22"/>
       <c r="H30" s="75">
         <f t="shared" si="0"/>
@@ -5490,18 +5530,24 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+      <c r="A31" s="12">
+        <v>44559</v>
+      </c>
       <c r="B31" s="13">
         <v>130</v>
       </c>
       <c r="C31" s="24"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
+      <c r="D31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="20">
+        <v>6560</v>
+      </c>
       <c r="F31" s="21"/>
       <c r="G31" s="22"/>
       <c r="H31" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -6098,16 +6144,16 @@
       <c r="D72" s="2"/>
       <c r="E72" s="39">
         <f>SUM(E4:E71)</f>
-        <v>399416</v>
+        <v>434559</v>
       </c>
       <c r="F72" s="39"/>
       <c r="G72" s="39">
         <f>SUM(G4:G71)</f>
-        <v>25634</v>
+        <v>42908</v>
       </c>
       <c r="H72" s="40">
         <f>SUM(H4:H71)</f>
-        <v>373782</v>
+        <v>391651</v>
       </c>
       <c r="I72" s="2"/>
     </row>
@@ -6149,12 +6195,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="103">
+      <c r="E76" s="101">
         <f>E72-G72</f>
-        <v>373782</v>
-      </c>
-      <c r="F76" s="104"/>
-      <c r="G76" s="105"/>
+        <v>391651</v>
+      </c>
+      <c r="F76" s="102"/>
+      <c r="G76" s="103"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -6170,11 +6216,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="106" t="s">
+      <c r="E78" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="106"/>
-      <c r="G78" s="106"/>
+      <c r="F78" s="104"/>
+      <c r="G78" s="104"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -6321,26 +6367,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
@@ -7250,27 +7296,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
     </row>
@@ -7465,11 +7511,11 @@
         <v>161427</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="113">
+      <c r="G11" s="111">
         <f>SUM(H4:H10)</f>
         <v>48874</v>
       </c>
-      <c r="H11" s="114"/>
+      <c r="H11" s="112"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -8844,11 +8890,11 @@
         <v>76469.81</v>
       </c>
       <c r="F81" s="61"/>
-      <c r="G81" s="115">
+      <c r="G81" s="113">
         <f>SUM(H67:H80)</f>
         <v>76469.81</v>
       </c>
-      <c r="H81" s="116"/>
+      <c r="H81" s="114"/>
     </row>
     <row r="82" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
@@ -8936,12 +8982,12 @@
       <c r="B88" s="37"/>
       <c r="C88" s="38"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="103">
+      <c r="E88" s="101">
         <f>E84-G84</f>
         <v>1332859.9100000001</v>
       </c>
-      <c r="F88" s="104"/>
-      <c r="G88" s="105"/>
+      <c r="F88" s="102"/>
+      <c r="G88" s="103"/>
       <c r="H88" s="44"/>
       <c r="I88" s="2"/>
     </row>
@@ -8958,11 +9004,11 @@
       <c r="B90" s="37"/>
       <c r="C90" s="38"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="106" t="s">
+      <c r="E90" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="106"/>
-      <c r="G90" s="106"/>
+      <c r="F90" s="104"/>
+      <c r="G90" s="104"/>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 12  DICIEMBRE   2021/CREDITOS  4 CARNES   Z A V A L E T A   DICIEMBRE    2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 12  DICIEMBRE   2021/CREDITOS  4 CARNES   Z A V A L E T A   DICIEMBRE    2021.xlsx
@@ -18,6 +18,8 @@
     <sheet name="Hoja3" sheetId="7" r:id="rId4"/>
     <sheet name="Hoja4" sheetId="8" r:id="rId5"/>
     <sheet name="Hoja1" sheetId="5" r:id="rId6"/>
+    <sheet name="Hoja2" sheetId="9" r:id="rId7"/>
+    <sheet name="Hoja5" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="29">
   <si>
     <t>REMISION</t>
   </si>
@@ -215,6 +217,9 @@
   <si>
     <t>taras</t>
   </si>
+  <si>
+    <t xml:space="preserve">COMERCIO CENTRAL  </t>
+  </si>
 </sst>
 </file>
 
@@ -379,7 +384,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,6 +442,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF66FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,7 +668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -897,6 +914,18 @@
     <xf numFmtId="166" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1153,13 +1182,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1206,13 +1235,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1340,6 +1369,117 @@
       <xdr:spPr>
         <a:xfrm rot="5400000">
           <a:off x="5472114" y="27970167"/>
+          <a:ext cx="638173" cy="495298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647703</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E055DA59-7FBF-4D29-B4AB-401C9645664F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4576765" y="8329615"/>
+          <a:ext cx="581022" cy="590546"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561977</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A450A5-FF34-4FFA-923D-F99626F430F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5472114" y="8377242"/>
           <a:ext cx="638173" cy="495298"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2953,8 +3093,8 @@
   </sheetPr>
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4562,8 +4702,8 @@
       <c r="E64" s="84">
         <v>12020</v>
       </c>
-      <c r="F64" s="95"/>
-      <c r="G64" s="96">
+      <c r="F64" s="115"/>
+      <c r="G64" s="116">
         <v>0</v>
       </c>
       <c r="H64" s="18">
@@ -4863,10 +5003,10 @@
   <sheetPr>
     <tabColor rgb="FFCC0099"/>
   </sheetPr>
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4948,7 +5088,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="17"/>
       <c r="H4" s="18">
-        <f t="shared" ref="H4:H71" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H36" si="0">E4-G4</f>
         <v>7232</v>
       </c>
       <c r="I4" s="2"/>
@@ -5251,16 +5391,18 @@
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="19" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E18" s="20">
-        <v>23400</v>
-      </c>
-      <c r="F18" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="118" t="s">
+        <v>9</v>
+      </c>
       <c r="G18" s="22"/>
       <c r="H18" s="18">
         <f t="shared" si="0"/>
-        <v>23400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -5338,7 +5480,7 @@
         <v>121</v>
       </c>
       <c r="C22" s="24"/>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="117" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="20">
@@ -5365,11 +5507,15 @@
       <c r="E23" s="20">
         <v>1881</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
+      <c r="F23" s="119">
+        <v>44558</v>
+      </c>
+      <c r="G23" s="120">
+        <v>1881</v>
+      </c>
       <c r="H23" s="18">
         <f t="shared" si="0"/>
-        <v>1881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -5380,7 +5526,7 @@
         <v>123</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="117" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="20">
@@ -5550,785 +5696,262 @@
         <v>6560</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13">
-        <v>131</v>
-      </c>
+    <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="24"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="62"/>
       <c r="H32" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="24"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="62"/>
       <c r="H33" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13">
-        <v>133</v>
-      </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="62"/>
       <c r="H34" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13">
-        <v>134</v>
-      </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="62"/>
       <c r="H35" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13">
-        <v>135</v>
-      </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13">
-        <v>136</v>
-      </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13">
-        <v>137</v>
-      </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13">
-        <v>138</v>
-      </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13">
-        <v>139</v>
-      </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13">
-        <v>140</v>
-      </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13">
-        <v>141</v>
-      </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13">
-        <v>142</v>
-      </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13">
-        <v>143</v>
-      </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
-      <c r="B45" s="13">
-        <v>144</v>
-      </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
-      <c r="B46" s="13">
-        <v>145</v>
-      </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="13">
-        <v>146</v>
-      </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
-      <c r="B48" s="13">
-        <v>147</v>
-      </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
-      <c r="B49" s="13">
-        <v>148</v>
-      </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
-      <c r="B50" s="13">
-        <v>149</v>
-      </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
-      <c r="B51" s="13">
-        <v>150</v>
-      </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-      <c r="B52" s="13">
-        <v>151</v>
-      </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-      <c r="B53" s="13">
-        <v>152</v>
-      </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="13">
-        <v>153</v>
-      </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
-      <c r="B55" s="13">
-        <v>154</v>
-      </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-      <c r="B56" s="13">
-        <v>155</v>
-      </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
-      <c r="B57" s="13">
-        <v>156</v>
-      </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-      <c r="B58" s="13">
-        <v>157</v>
-      </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="13">
-        <v>158</v>
-      </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
-      <c r="B60" s="13">
-        <v>159</v>
-      </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="13">
-        <v>160</v>
-      </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="13">
-        <v>161</v>
-      </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="13">
-        <v>162</v>
-      </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
-      <c r="B64" s="13">
-        <v>163</v>
-      </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
-      <c r="B65" s="13">
-        <v>164</v>
-      </c>
-      <c r="C65" s="24"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
-      <c r="B66" s="13">
-        <v>165</v>
-      </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="23"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="62"/>
-      <c r="H67" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="61"/>
-      <c r="G68" s="62"/>
-      <c r="H68" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="60"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="61"/>
-      <c r="G70" s="62"/>
-      <c r="H70" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="31"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="34">
-        <v>0</v>
-      </c>
-      <c r="F71" s="35"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="37"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="39">
-        <f>SUM(E4:E71)</f>
-        <v>434559</v>
-      </c>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39">
-        <f>SUM(G4:G71)</f>
-        <v>42908</v>
-      </c>
-      <c r="H72" s="40">
-        <f>SUM(H4:H71)</f>
-        <v>391651</v>
-      </c>
-      <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="37"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="44"/>
-      <c r="I73" s="2"/>
-    </row>
-    <row r="74" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B74" s="37"/>
-      <c r="C74" s="38"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="45" t="s">
+    <row r="36" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="31"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="34">
+        <v>0</v>
+      </c>
+      <c r="F36" s="35"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="37"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="39">
+        <f>SUM(E4:E36)</f>
+        <v>411159</v>
+      </c>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39">
+        <f>SUM(G4:G36)</f>
+        <v>44789</v>
+      </c>
+      <c r="H37" s="40">
+        <f>SUM(H4:H36)</f>
+        <v>366370</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="37"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B39" s="37"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F74" s="42"/>
-      <c r="G74" s="46" t="s">
+      <c r="F39" s="42"/>
+      <c r="G39" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H74" s="44"/>
-      <c r="I74" s="2"/>
-    </row>
-    <row r="75" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="37"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="44"/>
-      <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="37"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="101">
-        <f>E72-G72</f>
-        <v>391651</v>
-      </c>
-      <c r="F76" s="102"/>
-      <c r="G76" s="103"/>
-      <c r="I76" s="2"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="37"/>
-      <c r="C77" s="38"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="43"/>
-      <c r="I77" s="2"/>
-    </row>
-    <row r="78" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B78" s="37"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="104" t="s">
+      <c r="H39" s="44"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="37"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="101">
+        <f>E37-G37</f>
+        <v>366370</v>
+      </c>
+      <c r="F41" s="102"/>
+      <c r="G41" s="103"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="37"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="43"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B43" s="37"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="104"/>
-      <c r="G78" s="104"/>
-      <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="37"/>
-      <c r="C79" s="38"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="41"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="43"/>
-      <c r="I79" s="2"/>
-    </row>
-    <row r="80" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="30"/>
-      <c r="B80" s="47"/>
-      <c r="C80" s="48"/>
-      <c r="D80" s="49"/>
-      <c r="E80" s="50"/>
-      <c r="F80" s="51"/>
-      <c r="G80" s="50"/>
-      <c r="I80" s="2"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="37"/>
-      <c r="C81" s="38"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="41"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="43"/>
-      <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="37"/>
-      <c r="C82" s="38"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="41"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="43"/>
-      <c r="I82" s="2"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="37"/>
-      <c r="C83" s="38"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="42"/>
-      <c r="G83" s="43"/>
-      <c r="I83" s="2"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="37"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="42"/>
-      <c r="G84" s="43"/>
-      <c r="I84" s="2"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="37"/>
-      <c r="C85" s="38"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="41"/>
-      <c r="F85" s="42"/>
-      <c r="G85" s="43"/>
-      <c r="I85" s="2"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="37"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="41"/>
-      <c r="F86" s="42"/>
-      <c r="G86" s="43"/>
-      <c r="I86" s="2"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="37"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="41"/>
-      <c r="F87" s="42"/>
-      <c r="G87" s="43"/>
-      <c r="I87" s="2"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="37"/>
-      <c r="C88" s="38"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="41"/>
-      <c r="F88" s="42"/>
-      <c r="G88" s="43"/>
-      <c r="I88" s="2"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="37"/>
-      <c r="C89" s="38"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="41"/>
-      <c r="F89" s="42"/>
-      <c r="G89" s="43"/>
-      <c r="I89" s="2"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="37"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="43"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="30"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="50"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="37"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="43"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="37"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="43"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="37"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="43"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="37"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="43"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="37"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="43"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="37"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="43"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="37"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="43"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="37"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="43"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="37"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="43"/>
+      <c r="I54" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E43:G43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9126,4 +8749,1059 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="13.140625" style="52" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="53" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="55" customWidth="1"/>
+    <col min="7" max="7" width="18" style="56" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="107"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>44553</v>
+      </c>
+      <c r="B4" s="13">
+        <v>121</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="15">
+        <v>370</v>
+      </c>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="18">
+        <f>E4-G4</f>
+        <v>370</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>44553</v>
+      </c>
+      <c r="B5" s="13">
+        <v>123</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="20">
+        <v>745</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="18">
+        <f>E5-G5</f>
+        <v>745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="20">
+        <f>SUM(E4:E5)</f>
+        <v>1115</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>44545</v>
+      </c>
+      <c r="B8" s="13">
+        <v>113</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="20">
+        <v>5255</v>
+      </c>
+      <c r="F8" s="21">
+        <v>44559</v>
+      </c>
+      <c r="G8" s="22">
+        <v>5255</v>
+      </c>
+      <c r="H8" s="18">
+        <f>E8-G8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>44537</v>
+      </c>
+      <c r="B10" s="13">
+        <v>103</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="20">
+        <v>7232</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="18">
+        <f>E10-G10</f>
+        <v>7232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>44537</v>
+      </c>
+      <c r="B11" s="13">
+        <v>104</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="20">
+        <v>7667</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="18">
+        <f>E11-G11</f>
+        <v>7667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>44539</v>
+      </c>
+      <c r="B12" s="13">
+        <v>105</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="20">
+        <v>11332</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="18">
+        <f>E12-G12</f>
+        <v>11332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="89">
+        <v>44540</v>
+      </c>
+      <c r="B13" s="13">
+        <v>107</v>
+      </c>
+      <c r="C13" s="90"/>
+      <c r="D13" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="20">
+        <v>7987</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="75">
+        <f>E13-G13</f>
+        <v>7987</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>44541</v>
+      </c>
+      <c r="B14" s="13">
+        <v>108</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="20">
+        <v>3462</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="18">
+        <f>E14-G14</f>
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>44544</v>
+      </c>
+      <c r="B15" s="13">
+        <v>111</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="20">
+        <v>6618</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="18">
+        <f>E15-G15</f>
+        <v>6618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>44545</v>
+      </c>
+      <c r="B16" s="13">
+        <v>112</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="20">
+        <v>8241</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="18">
+        <f>E16-G16</f>
+        <v>8241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>44545</v>
+      </c>
+      <c r="B17" s="13">
+        <v>114</v>
+      </c>
+      <c r="C17" s="77"/>
+      <c r="D17" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="20">
+        <v>13074</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="18">
+        <f>E17-G17</f>
+        <v>13074</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>44550</v>
+      </c>
+      <c r="B18" s="13">
+        <v>117</v>
+      </c>
+      <c r="C18" s="78"/>
+      <c r="D18" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="20">
+        <v>0</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="18">
+        <f>E18-G18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>44557</v>
+      </c>
+      <c r="B19" s="13">
+        <v>124</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="20">
+        <v>218111</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="18">
+        <f>E19-G19</f>
+        <v>218111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>44558</v>
+      </c>
+      <c r="B20" s="13">
+        <v>126</v>
+      </c>
+      <c r="C20" s="78"/>
+      <c r="D20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="20">
+        <v>16564</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="18">
+        <f>E20-G20</f>
+        <v>16564</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>44559</v>
+      </c>
+      <c r="B21" s="13">
+        <v>130</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="20">
+        <v>6560</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="18">
+        <f>E21-G21</f>
+        <v>6560</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20">
+        <f>SUM(E10:E21)</f>
+        <v>306848</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>44551</v>
+      </c>
+      <c r="B24" s="13">
+        <v>120</v>
+      </c>
+      <c r="C24" s="78"/>
+      <c r="D24" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="20">
+        <v>405</v>
+      </c>
+      <c r="F24" s="21">
+        <v>44552</v>
+      </c>
+      <c r="G24" s="22">
+        <v>405</v>
+      </c>
+      <c r="H24" s="18">
+        <f>E24-G24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>44539</v>
+      </c>
+      <c r="B25" s="13">
+        <v>106</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="20">
+        <v>19750</v>
+      </c>
+      <c r="F25" s="21">
+        <v>44553</v>
+      </c>
+      <c r="G25" s="22">
+        <v>19750</v>
+      </c>
+      <c r="H25" s="18">
+        <f>E25-G25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>44543</v>
+      </c>
+      <c r="B26" s="13">
+        <v>110</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="20">
+        <v>5116</v>
+      </c>
+      <c r="F26" s="21">
+        <v>44544</v>
+      </c>
+      <c r="G26" s="22">
+        <v>5116</v>
+      </c>
+      <c r="H26" s="18">
+        <f>E26-G26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>44558</v>
+      </c>
+      <c r="B27" s="13">
+        <v>127</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="20">
+        <v>8467</v>
+      </c>
+      <c r="F27" s="21">
+        <v>44560</v>
+      </c>
+      <c r="G27" s="22">
+        <v>8467</v>
+      </c>
+      <c r="H27" s="18">
+        <f>E27-G27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>44558</v>
+      </c>
+      <c r="B28" s="13">
+        <v>128</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="20">
+        <v>3552</v>
+      </c>
+      <c r="F28" s="21">
+        <v>44560</v>
+      </c>
+      <c r="G28" s="22">
+        <v>3552</v>
+      </c>
+      <c r="H28" s="18">
+        <f>E28-G28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>44553</v>
+      </c>
+      <c r="B30" s="13">
+        <v>122</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="20">
+        <v>1881</v>
+      </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="18">
+        <f>E30-G30</f>
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>44543</v>
+      </c>
+      <c r="B32" s="13">
+        <v>109</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="20">
+        <v>363</v>
+      </c>
+      <c r="F32" s="69">
+        <v>44543</v>
+      </c>
+      <c r="G32" s="70">
+        <v>363</v>
+      </c>
+      <c r="H32" s="18">
+        <f>E32-G32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>44546</v>
+      </c>
+      <c r="B34" s="13">
+        <v>115</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="20">
+        <v>44476</v>
+      </c>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="18">
+        <f>E34-G34</f>
+        <v>44476</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>44547</v>
+      </c>
+      <c r="B35" s="13">
+        <v>116</v>
+      </c>
+      <c r="C35" s="77"/>
+      <c r="D35" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="20">
+        <v>12113</v>
+      </c>
+      <c r="F35" s="21"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="18">
+        <f>E35-G35</f>
+        <v>12113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>44550</v>
+      </c>
+      <c r="B36" s="13">
+        <v>118</v>
+      </c>
+      <c r="C36" s="77"/>
+      <c r="D36" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="20">
+        <v>1348</v>
+      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="18">
+        <f>E36-G36</f>
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>44551</v>
+      </c>
+      <c r="B37" s="13">
+        <v>119</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="20">
+        <v>1</v>
+      </c>
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="18">
+        <f>E37-G37</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>44557</v>
+      </c>
+      <c r="B38" s="13">
+        <v>125</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="20">
+        <v>469</v>
+      </c>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="18">
+        <f>E38-G38</f>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>44559</v>
+      </c>
+      <c r="B39" s="13">
+        <v>129</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="20">
+        <v>0</v>
+      </c>
+      <c r="F39" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="22"/>
+      <c r="H39" s="75">
+        <f>E39-G39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="60">
+        <f>SUM(E34:E39)</f>
+        <v>58407</v>
+      </c>
+      <c r="F40" s="61"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="18">
+        <f t="shared" ref="H4:H44" si="0">E43-G43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="31"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="34">
+        <v>0</v>
+      </c>
+      <c r="F44" s="35"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="37"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="39">
+        <f>SUM(E4:E44)</f>
+        <v>777529</v>
+      </c>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39">
+        <f>SUM(G4:G44)</f>
+        <v>42908</v>
+      </c>
+      <c r="H45" s="40">
+        <f>SUM(H4:H44)</f>
+        <v>368251</v>
+      </c>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="37"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B47" s="37"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="42"/>
+      <c r="G47" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="44"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="37"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="37"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="101">
+        <f>E45-G45</f>
+        <v>734621</v>
+      </c>
+      <c r="F49" s="102"/>
+      <c r="G49" s="103"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="37"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="43"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B51" s="37"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="104"/>
+      <c r="G51" s="104"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="37"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="43"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="30"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="50"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="37"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="43"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="37"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="43"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="37"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="43"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="37"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="43"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="37"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="43"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="37"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="43"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="37"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="43"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="37"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="43"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="37"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="43"/>
+      <c r="I62" s="2"/>
+    </row>
+  </sheetData>
+  <sortState ref="A4:H31">
+    <sortCondition ref="D4:D31"/>
+  </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E51:G51"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>